--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pla2g10-Pla2r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Pla2g10</t>
   </si>
   <si>
     <t>Pla2r1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.375537</v>
+        <v>0.1684906666666667</v>
       </c>
       <c r="H2">
-        <v>1.126611</v>
+        <v>0.505472</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2566215062257643</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.2566215062257643</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.093728333333333</v>
+        <v>1.024060333333333</v>
       </c>
       <c r="N2">
-        <v>6.281185000000001</v>
+        <v>3.072181</v>
       </c>
       <c r="O2">
-        <v>0.1212860452822914</v>
+        <v>0.06292213023839138</v>
       </c>
       <c r="P2">
-        <v>0.1212860452822914</v>
+        <v>0.0629221302383914</v>
       </c>
       <c r="Q2">
-        <v>0.786272457115</v>
+        <v>0.1725446082702222</v>
       </c>
       <c r="R2">
-        <v>7.076452114035001</v>
+        <v>1.552901474432</v>
       </c>
       <c r="S2">
-        <v>0.1212860452822914</v>
+        <v>0.01614717183670971</v>
       </c>
       <c r="T2">
-        <v>0.1212860452822914</v>
+        <v>0.01614717183670971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.375537</v>
+        <v>0.1684906666666667</v>
       </c>
       <c r="H3">
-        <v>1.126611</v>
+        <v>0.505472</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2566215062257643</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.2566215062257643</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.221176333333334</v>
+        <v>9.221176333333332</v>
       </c>
       <c r="N3">
         <v>27.663529</v>
       </c>
       <c r="O3">
-        <v>0.5341667266546011</v>
+        <v>0.5665838616251831</v>
       </c>
       <c r="P3">
-        <v>0.5341667266546011</v>
+        <v>0.5665838616251833</v>
       </c>
       <c r="Q3">
-        <v>3.462892896691</v>
+        <v>1.553682147854222</v>
       </c>
       <c r="R3">
-        <v>31.166036070219</v>
+        <v>13.983139330688</v>
       </c>
       <c r="S3">
-        <v>0.5341667266546011</v>
+        <v>0.1453976039734645</v>
       </c>
       <c r="T3">
-        <v>0.5341667266546011</v>
+        <v>0.1453976039734645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.375537</v>
+        <v>0.1684906666666667</v>
       </c>
       <c r="H4">
-        <v>1.126611</v>
+        <v>0.505472</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2566215062257643</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.2566215062257643</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.833165</v>
+        <v>5.937082</v>
       </c>
       <c r="N4">
-        <v>17.499495</v>
+        <v>17.811246</v>
       </c>
       <c r="O4">
-        <v>0.3379051155135904</v>
+        <v>0.3647967162481728</v>
       </c>
       <c r="P4">
-        <v>0.3379051155135904</v>
+        <v>0.3647967162481728</v>
       </c>
       <c r="Q4">
-        <v>2.190569284605</v>
+        <v>1.000342904234667</v>
       </c>
       <c r="R4">
-        <v>19.715123561445</v>
+        <v>9.003086138112002</v>
       </c>
       <c r="S4">
-        <v>0.3379051155135904</v>
+        <v>0.09361468278981884</v>
       </c>
       <c r="T4">
-        <v>0.3379051155135904</v>
+        <v>0.09361468278981885</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.375537</v>
+        <v>0.1684906666666667</v>
       </c>
       <c r="H5">
-        <v>1.126611</v>
+        <v>0.505472</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.2566215062257643</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.2566215062257643</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,524 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.114661</v>
+        <v>0.09272366666666665</v>
       </c>
       <c r="N5">
-        <v>0.3439829999999999</v>
+        <v>0.2781709999999999</v>
       </c>
       <c r="O5">
-        <v>0.006642112549517076</v>
+        <v>0.005697291888252537</v>
       </c>
       <c r="P5">
-        <v>0.006642112549517077</v>
+        <v>0.005697291888252538</v>
       </c>
       <c r="Q5">
-        <v>0.04305944795699999</v>
+        <v>0.01562307241244444</v>
       </c>
       <c r="R5">
-        <v>0.3875350316129999</v>
+        <v>0.140607651712</v>
       </c>
       <c r="S5">
-        <v>0.006642112549517076</v>
+        <v>0.001462047625771195</v>
       </c>
       <c r="T5">
-        <v>0.006642112549517077</v>
+        <v>0.001462047625771195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.375537</v>
+      </c>
+      <c r="H6">
+        <v>1.126611</v>
+      </c>
+      <c r="I6">
+        <v>0.5719656316284869</v>
+      </c>
+      <c r="J6">
+        <v>0.5719656316284868</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.024060333333333</v>
+      </c>
+      <c r="N6">
+        <v>3.072181</v>
+      </c>
+      <c r="O6">
+        <v>0.06292213023839138</v>
+      </c>
+      <c r="P6">
+        <v>0.0629221302383914</v>
+      </c>
+      <c r="Q6">
+        <v>0.384572545399</v>
+      </c>
+      <c r="R6">
+        <v>3.461152908591</v>
+      </c>
+      <c r="S6">
+        <v>0.03598929596521144</v>
+      </c>
+      <c r="T6">
+        <v>0.03598929596521144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.375537</v>
+      </c>
+      <c r="H7">
+        <v>1.126611</v>
+      </c>
+      <c r="I7">
+        <v>0.5719656316284869</v>
+      </c>
+      <c r="J7">
+        <v>0.5719656316284868</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>9.221176333333332</v>
+      </c>
+      <c r="N7">
+        <v>27.663529</v>
+      </c>
+      <c r="O7">
+        <v>0.5665838616251831</v>
+      </c>
+      <c r="P7">
+        <v>0.5665838616251833</v>
+      </c>
+      <c r="Q7">
+        <v>3.462892896691</v>
+      </c>
+      <c r="R7">
+        <v>31.166036070219</v>
+      </c>
+      <c r="S7">
+        <v>0.3240664962849551</v>
+      </c>
+      <c r="T7">
+        <v>0.3240664962849551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.375537</v>
+      </c>
+      <c r="H8">
+        <v>1.126611</v>
+      </c>
+      <c r="I8">
+        <v>0.5719656316284869</v>
+      </c>
+      <c r="J8">
+        <v>0.5719656316284868</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.937082</v>
+      </c>
+      <c r="N8">
+        <v>17.811246</v>
+      </c>
+      <c r="O8">
+        <v>0.3647967162481728</v>
+      </c>
+      <c r="P8">
+        <v>0.3647967162481728</v>
+      </c>
+      <c r="Q8">
+        <v>2.229593963034</v>
+      </c>
+      <c r="R8">
+        <v>20.066345667306</v>
+      </c>
+      <c r="S8">
+        <v>0.208651184224884</v>
+      </c>
+      <c r="T8">
+        <v>0.208651184224884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.375537</v>
+      </c>
+      <c r="H9">
+        <v>1.126611</v>
+      </c>
+      <c r="I9">
+        <v>0.5719656316284869</v>
+      </c>
+      <c r="J9">
+        <v>0.5719656316284868</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.09272366666666665</v>
+      </c>
+      <c r="N9">
+        <v>0.2781709999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.005697291888252537</v>
+      </c>
+      <c r="P9">
+        <v>0.005697291888252538</v>
+      </c>
+      <c r="Q9">
+        <v>0.034821167609</v>
+      </c>
+      <c r="R9">
+        <v>0.313390508481</v>
+      </c>
+      <c r="S9">
+        <v>0.003258655153436217</v>
+      </c>
+      <c r="T9">
+        <v>0.003258655153436217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.112545</v>
+      </c>
+      <c r="H10">
+        <v>0.337635</v>
+      </c>
+      <c r="I10">
+        <v>0.1714128621457488</v>
+      </c>
+      <c r="J10">
+        <v>0.1714128621457488</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.024060333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.072181</v>
+      </c>
+      <c r="O10">
+        <v>0.06292213023839138</v>
+      </c>
+      <c r="P10">
+        <v>0.0629221302383914</v>
+      </c>
+      <c r="Q10">
+        <v>0.115252870215</v>
+      </c>
+      <c r="R10">
+        <v>1.037275831935</v>
+      </c>
+      <c r="S10">
+        <v>0.01078566243647023</v>
+      </c>
+      <c r="T10">
+        <v>0.01078566243647023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.112545</v>
+      </c>
+      <c r="H11">
+        <v>0.337635</v>
+      </c>
+      <c r="I11">
+        <v>0.1714128621457488</v>
+      </c>
+      <c r="J11">
+        <v>0.1714128621457488</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.221176333333332</v>
+      </c>
+      <c r="N11">
+        <v>27.663529</v>
+      </c>
+      <c r="O11">
+        <v>0.5665838616251831</v>
+      </c>
+      <c r="P11">
+        <v>0.5665838616251833</v>
+      </c>
+      <c r="Q11">
+        <v>1.037797290435</v>
+      </c>
+      <c r="R11">
+        <v>9.340175613914999</v>
+      </c>
+      <c r="S11">
+        <v>0.09711976136676352</v>
+      </c>
+      <c r="T11">
+        <v>0.09711976136676354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.112545</v>
+      </c>
+      <c r="H12">
+        <v>0.337635</v>
+      </c>
+      <c r="I12">
+        <v>0.1714128621457488</v>
+      </c>
+      <c r="J12">
+        <v>0.1714128621457488</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>5.937082</v>
+      </c>
+      <c r="N12">
+        <v>17.811246</v>
+      </c>
+      <c r="O12">
+        <v>0.3647967162481728</v>
+      </c>
+      <c r="P12">
+        <v>0.3647967162481728</v>
+      </c>
+      <c r="Q12">
+        <v>0.66818889369</v>
+      </c>
+      <c r="R12">
+        <v>6.013700043210001</v>
+      </c>
+      <c r="S12">
+        <v>0.06253084923346987</v>
+      </c>
+      <c r="T12">
+        <v>0.06253084923346988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.112545</v>
+      </c>
+      <c r="H13">
+        <v>0.337635</v>
+      </c>
+      <c r="I13">
+        <v>0.1714128621457488</v>
+      </c>
+      <c r="J13">
+        <v>0.1714128621457488</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.09272366666666665</v>
+      </c>
+      <c r="N13">
+        <v>0.2781709999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.005697291888252537</v>
+      </c>
+      <c r="P13">
+        <v>0.005697291888252538</v>
+      </c>
+      <c r="Q13">
+        <v>0.010435585065</v>
+      </c>
+      <c r="R13">
+        <v>0.09392026558499998</v>
+      </c>
+      <c r="S13">
+        <v>0.0009765891090451249</v>
+      </c>
+      <c r="T13">
+        <v>0.0009765891090451249</v>
       </c>
     </row>
   </sheetData>
